--- a/data/chickens/B1 - LIL20.xlsx
+++ b/data/chickens/B1 - LIL20.xlsx
@@ -5,13 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Pedigree" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Body Weight" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Feed Intake" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Pedigree!$A$1:$J$220</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -22,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID (Wing Tag)</t>
   </si>
@@ -67,9 +70,6 @@
   </si>
   <si>
     <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28/10/2022 </t>
   </si>
   <si>
     <t xml:space="preserve">Week 0</t>
@@ -170,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,6 +213,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -284,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -309,11 +314,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -346,7 +355,28 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF7F7F7"/>
+          <bgColor rgb="FF272727"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,8 +386,8 @@
   </sheetPr>
   <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2050,7 +2080,7 @@
         <v>10</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>12</v>
@@ -2100,8 +2130,8 @@
       <c r="C107" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D107" s="0" t="s">
-        <v>15</v>
+      <c r="D107" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>12</v>
@@ -3939,6 +3969,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J220"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3946,6 +3977,7 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3956,8 +3988,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A183" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B204" activeCellId="0" sqref="B204"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C202" activeCellId="0" sqref="C202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3969,56 +4001,56 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="K1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="L1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="O1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="P1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P1" s="7" t="s">
+      <c r="Q1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="7" t="s">
+      <c r="R1" s="8" t="s">
         <v>31</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="ALN1" s="0"/>
       <c r="ALO1" s="0"/>
@@ -4084,7 +4116,7 @@
       <c r="M2" s="0" t="n">
         <v>438.4</v>
       </c>
-      <c r="O2" s="8"/>
+      <c r="O2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
@@ -4403,7 +4435,7 @@
       <c r="Q8" s="0" t="n">
         <v>1399.6</v>
       </c>
-      <c r="R8" s="9" t="n">
+      <c r="R8" s="10" t="n">
         <v>1397.5</v>
       </c>
     </row>
@@ -4509,7 +4541,7 @@
       <c r="Q10" s="0" t="n">
         <v>1144.8</v>
       </c>
-      <c r="R10" s="10" t="n">
+      <c r="R10" s="11" t="n">
         <v>1126.5</v>
       </c>
     </row>
@@ -4565,7 +4597,7 @@
       <c r="Q11" s="0" t="n">
         <v>1082</v>
       </c>
-      <c r="R11" s="10" t="n">
+      <c r="R11" s="11" t="n">
         <v>1108</v>
       </c>
     </row>
@@ -4738,8 +4770,8 @@
       <c r="J15" s="0" t="n">
         <v>220.6</v>
       </c>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="n">
@@ -5058,7 +5090,7 @@
       <c r="Q21" s="0" t="n">
         <v>1110.5</v>
       </c>
-      <c r="R21" s="10" t="n">
+      <c r="R21" s="11" t="n">
         <v>1101.8</v>
       </c>
     </row>
@@ -5087,10 +5119,10 @@
       <c r="H22" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
+      <c r="I22" s="11"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="n">
@@ -5200,7 +5232,7 @@
       <c r="Q24" s="0" t="n">
         <v>1108.3</v>
       </c>
-      <c r="R24" s="10" t="n">
+      <c r="R24" s="11" t="n">
         <v>1095.6</v>
       </c>
     </row>
@@ -5506,7 +5538,7 @@
       <c r="Q30" s="0" t="n">
         <v>1349</v>
       </c>
-      <c r="R30" s="9" t="n">
+      <c r="R30" s="10" t="n">
         <v>1374.3</v>
       </c>
     </row>
@@ -5562,7 +5594,7 @@
       <c r="Q31" s="0" t="n">
         <v>1082</v>
       </c>
-      <c r="R31" s="10" t="n">
+      <c r="R31" s="11" t="n">
         <v>1089.7</v>
       </c>
     </row>
@@ -5674,7 +5706,7 @@
       <c r="Q33" s="0" t="n">
         <v>1072</v>
       </c>
-      <c r="R33" s="10" t="n">
+      <c r="R33" s="11" t="n">
         <v>1085.8</v>
       </c>
     </row>
@@ -5730,7 +5762,7 @@
       <c r="Q34" s="0" t="n">
         <v>1077.4</v>
       </c>
-      <c r="R34" s="10" t="n">
+      <c r="R34" s="11" t="n">
         <v>1085.5</v>
       </c>
     </row>
@@ -5842,7 +5874,7 @@
       <c r="Q36" s="0" t="n">
         <v>1294.2</v>
       </c>
-      <c r="R36" s="9" t="n">
+      <c r="R36" s="10" t="n">
         <v>1271</v>
       </c>
     </row>
@@ -5898,7 +5930,7 @@
       <c r="Q37" s="0" t="n">
         <v>1370</v>
       </c>
-      <c r="R37" s="9" t="n">
+      <c r="R37" s="10" t="n">
         <v>1370.5</v>
       </c>
     </row>
@@ -6030,13 +6062,13 @@
       <c r="E40" s="0" t="n">
         <v>82.7</v>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="n">
@@ -6090,7 +6122,7 @@
       <c r="Q41" s="0" t="n">
         <v>1056.7</v>
       </c>
-      <c r="R41" s="10" t="n">
+      <c r="R41" s="11" t="n">
         <v>1067.5</v>
       </c>
     </row>
@@ -6146,7 +6178,7 @@
       <c r="Q42" s="0" t="n">
         <v>1035.8</v>
       </c>
-      <c r="R42" s="10" t="n">
+      <c r="R42" s="11" t="n">
         <v>1055.6</v>
       </c>
     </row>
@@ -6202,7 +6234,7 @@
       <c r="Q43" s="0" t="n">
         <v>1014.2</v>
       </c>
-      <c r="R43" s="9" t="n">
+      <c r="R43" s="10" t="n">
         <v>1276.7</v>
       </c>
     </row>
@@ -6464,7 +6496,7 @@
       <c r="Q48" s="0" t="n">
         <v>1044.5</v>
       </c>
-      <c r="R48" s="10" t="n">
+      <c r="R48" s="11" t="n">
         <v>1048.7</v>
       </c>
     </row>
@@ -6664,7 +6696,7 @@
       <c r="O52" s="0" t="n">
         <v>1000.6</v>
       </c>
-      <c r="P52" s="8" t="n">
+      <c r="P52" s="9" t="n">
         <v>1118.7</v>
       </c>
       <c r="Q52" s="0" t="n">
@@ -6726,7 +6758,7 @@
       <c r="Q53" s="0" t="n">
         <v>1057</v>
       </c>
-      <c r="R53" s="10" t="n">
+      <c r="R53" s="11" t="n">
         <v>1044.8</v>
       </c>
     </row>
@@ -6894,7 +6926,7 @@
       <c r="Q56" s="0" t="n">
         <v>1035.3</v>
       </c>
-      <c r="R56" s="10" t="n">
+      <c r="R56" s="11" t="n">
         <v>1025.8</v>
       </c>
     </row>
@@ -7006,7 +7038,7 @@
       <c r="Q58" s="0" t="n">
         <v>986.5</v>
       </c>
-      <c r="R58" s="10" t="n">
+      <c r="R58" s="11" t="n">
         <v>1025</v>
       </c>
     </row>
@@ -7118,7 +7150,7 @@
       <c r="Q60" s="0" t="n">
         <v>1385</v>
       </c>
-      <c r="R60" s="9" t="n">
+      <c r="R60" s="10" t="n">
         <v>1395</v>
       </c>
     </row>
@@ -7230,7 +7262,7 @@
       <c r="Q62" s="0" t="n">
         <v>1017</v>
       </c>
-      <c r="R62" s="10" t="n">
+      <c r="R62" s="11" t="n">
         <v>1021</v>
       </c>
     </row>
@@ -7389,7 +7421,7 @@
       <c r="Q65" s="0" t="n">
         <v>1310.5</v>
       </c>
-      <c r="R65" s="9" t="n">
+      <c r="R65" s="10" t="n">
         <v>1259.3</v>
       </c>
     </row>
@@ -7501,7 +7533,7 @@
       <c r="Q67" s="0" t="n">
         <v>1023.4</v>
       </c>
-      <c r="R67" s="10" t="n">
+      <c r="R67" s="11" t="n">
         <v>1019</v>
       </c>
     </row>
@@ -7557,7 +7589,7 @@
       <c r="Q68" s="0" t="n">
         <v>1056.8</v>
       </c>
-      <c r="R68" s="10" t="n">
+      <c r="R68" s="11" t="n">
         <v>1005.5</v>
       </c>
     </row>
@@ -7716,7 +7748,7 @@
       <c r="Q71" s="0" t="n">
         <v>1314.9</v>
       </c>
-      <c r="R71" s="9" t="n">
+      <c r="R71" s="10" t="n">
         <v>1349.4</v>
       </c>
     </row>
@@ -7772,7 +7804,7 @@
       <c r="Q72" s="0" t="n">
         <v>1031.3</v>
       </c>
-      <c r="R72" s="10" t="n">
+      <c r="R72" s="11" t="n">
         <v>1004</v>
       </c>
     </row>
@@ -7866,7 +7898,7 @@
       <c r="Q74" s="0" t="n">
         <v>1370.6</v>
       </c>
-      <c r="R74" s="9" t="n">
+      <c r="R74" s="10" t="n">
         <v>1342</v>
       </c>
     </row>
@@ -7922,7 +7954,7 @@
       <c r="Q75" s="0" t="n">
         <v>1292</v>
       </c>
-      <c r="R75" s="9" t="n">
+      <c r="R75" s="10" t="n">
         <v>1313.8</v>
       </c>
     </row>
@@ -8163,7 +8195,7 @@
       <c r="Q80" s="0" t="n">
         <v>1471.3</v>
       </c>
-      <c r="R80" s="9" t="n">
+      <c r="R80" s="10" t="n">
         <v>1449</v>
       </c>
     </row>
@@ -8219,7 +8251,7 @@
       <c r="Q81" s="0" t="n">
         <v>1401.7</v>
       </c>
-      <c r="R81" s="9" t="n">
+      <c r="R81" s="10" t="n">
         <v>1417.5</v>
       </c>
     </row>
@@ -8275,7 +8307,7 @@
       <c r="Q82" s="0" t="n">
         <v>1015.5</v>
       </c>
-      <c r="R82" s="10" t="n">
+      <c r="R82" s="11" t="n">
         <v>1001.2</v>
       </c>
     </row>
@@ -8357,11 +8389,11 @@
       <c r="G84" s="0" t="n">
         <v>109.1</v>
       </c>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="n">
@@ -8373,13 +8405,13 @@
       <c r="C85" s="0" t="n">
         <v>40.4</v>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
+      <c r="F85" s="11"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="n">
@@ -8542,7 +8574,7 @@
       <c r="Q88" s="0" t="n">
         <v>989.8</v>
       </c>
-      <c r="R88" s="10" t="n">
+      <c r="R88" s="11" t="n">
         <v>991.5</v>
       </c>
     </row>
@@ -8598,7 +8630,7 @@
       <c r="Q89" s="0" t="n">
         <v>1016.2</v>
       </c>
-      <c r="R89" s="10" t="n">
+      <c r="R89" s="11" t="n">
         <v>982.9</v>
       </c>
     </row>
@@ -8677,10 +8709,10 @@
       <c r="H91" s="0" t="n">
         <v>262.7</v>
       </c>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
+      <c r="I91" s="11"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11"/>
+      <c r="L91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="n">
@@ -8790,7 +8822,7 @@
       <c r="Q93" s="0" t="n">
         <v>890</v>
       </c>
-      <c r="R93" s="10" t="n">
+      <c r="R93" s="11" t="n">
         <v>975</v>
       </c>
     </row>
@@ -8804,13 +8836,13 @@
       <c r="C94" s="0" t="n">
         <v>41.2</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
+      <c r="F94" s="11"/>
+      <c r="G94" s="11"/>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="11"/>
+      <c r="L94" s="11"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="n">
@@ -8920,7 +8952,7 @@
       <c r="Q96" s="0" t="n">
         <v>977.2</v>
       </c>
-      <c r="R96" s="10" t="n">
+      <c r="R96" s="11" t="n">
         <v>974</v>
       </c>
     </row>
@@ -9143,7 +9175,7 @@
       <c r="Q101" s="0" t="n">
         <v>943.8</v>
       </c>
-      <c r="R101" s="10" t="n">
+      <c r="R101" s="11" t="n">
         <v>972.6</v>
       </c>
     </row>
@@ -9199,7 +9231,7 @@
       <c r="Q102" s="0" t="n">
         <v>945.8</v>
       </c>
-      <c r="R102" s="10" t="n">
+      <c r="R102" s="11" t="n">
         <v>972.5</v>
       </c>
     </row>
@@ -9311,7 +9343,7 @@
       <c r="Q104" s="0" t="n">
         <v>1509.5</v>
       </c>
-      <c r="R104" s="9" t="n">
+      <c r="R104" s="10" t="n">
         <v>1505</v>
       </c>
     </row>
@@ -9423,7 +9455,7 @@
       <c r="Q106" s="0" t="n">
         <v>964.3</v>
       </c>
-      <c r="R106" s="10" t="n">
+      <c r="R106" s="11" t="n">
         <v>967.8</v>
       </c>
     </row>
@@ -9479,7 +9511,7 @@
       <c r="Q107" s="0" t="n">
         <v>1551</v>
       </c>
-      <c r="R107" s="9" t="n">
+      <c r="R107" s="10" t="n">
         <v>1508.1</v>
       </c>
     </row>
@@ -9694,7 +9726,7 @@
       <c r="Q111" s="0" t="n">
         <v>986.7</v>
       </c>
-      <c r="R111" s="10" t="n">
+      <c r="R111" s="11" t="n">
         <v>958</v>
       </c>
     </row>
@@ -9764,13 +9796,13 @@
       <c r="C113" s="0" t="n">
         <v>36.6</v>
       </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="10"/>
-      <c r="K113" s="10"/>
-      <c r="L113" s="10"/>
+      <c r="F113" s="11"/>
+      <c r="G113" s="11"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11"/>
+      <c r="L113" s="11"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="n">
@@ -10003,7 +10035,7 @@
       <c r="Q118" s="0" t="n">
         <v>958.6</v>
       </c>
-      <c r="R118" s="10" t="n">
+      <c r="R118" s="11" t="n">
         <v>954.5</v>
       </c>
     </row>
@@ -10059,7 +10091,7 @@
       <c r="Q119" s="0" t="n">
         <v>922.7</v>
       </c>
-      <c r="R119" s="10" t="n">
+      <c r="R119" s="11" t="n">
         <v>936</v>
       </c>
     </row>
@@ -10171,7 +10203,7 @@
       <c r="Q121" s="0" t="n">
         <v>932.5</v>
       </c>
-      <c r="R121" s="10" t="n">
+      <c r="R121" s="11" t="n">
         <v>929.6</v>
       </c>
     </row>
@@ -10280,7 +10312,7 @@
       <c r="Q123" s="0" t="n">
         <v>893</v>
       </c>
-      <c r="R123" s="10" t="n">
+      <c r="R123" s="11" t="n">
         <v>926.5</v>
       </c>
     </row>
@@ -10477,7 +10509,7 @@
       <c r="Q127" s="0" t="n">
         <v>898.6</v>
       </c>
-      <c r="R127" s="10" t="n">
+      <c r="R127" s="11" t="n">
         <v>918.7</v>
       </c>
     </row>
@@ -10589,7 +10621,7 @@
       <c r="Q129" s="0" t="n">
         <v>1257</v>
       </c>
-      <c r="R129" s="9" t="n">
+      <c r="R129" s="10" t="n">
         <v>1289.2</v>
       </c>
     </row>
@@ -10792,7 +10824,7 @@
       <c r="Q133" s="0" t="n">
         <v>1487</v>
       </c>
-      <c r="R133" s="9" t="n">
+      <c r="R133" s="10" t="n">
         <v>1440</v>
       </c>
     </row>
@@ -10848,7 +10880,7 @@
       <c r="Q134" s="0" t="n">
         <v>933</v>
       </c>
-      <c r="R134" s="10" t="n">
+      <c r="R134" s="11" t="n">
         <v>918.6</v>
       </c>
     </row>
@@ -10904,7 +10936,7 @@
       <c r="Q135" s="0" t="n">
         <v>906.8</v>
       </c>
-      <c r="R135" s="10" t="n">
+      <c r="R135" s="11" t="n">
         <v>916.5</v>
       </c>
     </row>
@@ -11063,7 +11095,7 @@
       <c r="Q138" s="0" t="n">
         <v>879.8</v>
       </c>
-      <c r="R138" s="10" t="n">
+      <c r="R138" s="11" t="n">
         <v>916.4</v>
       </c>
     </row>
@@ -11287,7 +11319,7 @@
       <c r="Q142" s="0" t="n">
         <v>914.9</v>
       </c>
-      <c r="R142" s="10" t="n">
+      <c r="R142" s="11" t="n">
         <v>909.3</v>
       </c>
     </row>
@@ -11343,7 +11375,7 @@
       <c r="Q143" s="0" t="n">
         <v>927.5</v>
       </c>
-      <c r="R143" s="10" t="n">
+      <c r="R143" s="11" t="n">
         <v>900.4</v>
       </c>
     </row>
@@ -11490,7 +11522,7 @@
       <c r="Q146" s="0" t="n">
         <v>897.8</v>
       </c>
-      <c r="R146" s="10" t="n">
+      <c r="R146" s="11" t="n">
         <v>896.7</v>
       </c>
     </row>
@@ -11510,13 +11542,13 @@
       <c r="E147" s="0" t="n">
         <v>124.5</v>
       </c>
-      <c r="F147" s="10"/>
-      <c r="G147" s="10"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="10"/>
-      <c r="K147" s="10"/>
-      <c r="L147" s="10"/>
+      <c r="F147" s="11"/>
+      <c r="G147" s="11"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11"/>
+      <c r="L147" s="11"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="n">
@@ -11959,7 +11991,7 @@
       <c r="Q155" s="0" t="n">
         <v>878.3</v>
       </c>
-      <c r="R155" s="10" t="n">
+      <c r="R155" s="11" t="n">
         <v>892.7</v>
       </c>
     </row>
@@ -12174,7 +12206,7 @@
       <c r="Q159" s="0" t="n">
         <v>886.7</v>
       </c>
-      <c r="R159" s="10" t="n">
+      <c r="R159" s="11" t="n">
         <v>888</v>
       </c>
     </row>
@@ -12439,7 +12471,7 @@
       <c r="Q164" s="0" t="n">
         <v>881.4</v>
       </c>
-      <c r="R164" s="10" t="n">
+      <c r="R164" s="11" t="n">
         <v>886.8</v>
       </c>
     </row>
@@ -12524,10 +12556,10 @@
       <c r="H166" s="0" t="n">
         <v>323.9</v>
       </c>
-      <c r="I166" s="10"/>
-      <c r="J166" s="10"/>
-      <c r="K166" s="10"/>
-      <c r="L166" s="10"/>
+      <c r="I166" s="11"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="11"/>
+      <c r="L166" s="11"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="n">
@@ -12728,7 +12760,7 @@
       <c r="Q170" s="0" t="n">
         <v>1243</v>
       </c>
-      <c r="R170" s="9" t="n">
+      <c r="R170" s="10" t="n">
         <v>1258</v>
       </c>
     </row>
@@ -12748,13 +12780,13 @@
       <c r="E171" s="0" t="n">
         <v>116.8</v>
       </c>
-      <c r="F171" s="10"/>
-      <c r="G171" s="10"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="10"/>
-      <c r="K171" s="10"/>
-      <c r="L171" s="10"/>
+      <c r="F171" s="11"/>
+      <c r="G171" s="11"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="11"/>
+      <c r="L171" s="11"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="n">
@@ -13306,7 +13338,7 @@
       <c r="Q181" s="0" t="n">
         <v>880.8</v>
       </c>
-      <c r="R181" s="10" t="n">
+      <c r="R181" s="11" t="n">
         <v>879.6</v>
       </c>
     </row>
@@ -13474,7 +13506,7 @@
       <c r="Q184" s="0" t="n">
         <v>1416.2</v>
       </c>
-      <c r="R184" s="9" t="n">
+      <c r="R184" s="10" t="n">
         <v>1373</v>
       </c>
     </row>
@@ -13642,7 +13674,7 @@
       <c r="Q187" s="0" t="n">
         <v>947.6</v>
       </c>
-      <c r="R187" s="10" t="n">
+      <c r="R187" s="11" t="n">
         <v>874.2</v>
       </c>
     </row>
@@ -13698,7 +13730,7 @@
       <c r="Q188" s="0" t="n">
         <v>1323.5</v>
       </c>
-      <c r="R188" s="9" t="n">
+      <c r="R188" s="10" t="n">
         <v>1325.5</v>
       </c>
     </row>
@@ -13807,7 +13839,7 @@
       <c r="Q190" s="0" t="n">
         <v>1414.3</v>
       </c>
-      <c r="R190" s="9" t="n">
+      <c r="R190" s="10" t="n">
         <v>1392.9</v>
       </c>
     </row>
@@ -13907,7 +13939,7 @@
       <c r="Q192" s="0" t="n">
         <v>860.1</v>
       </c>
-      <c r="R192" s="10" t="n">
+      <c r="R192" s="11" t="n">
         <v>871.8</v>
       </c>
     </row>
@@ -13927,13 +13959,13 @@
       <c r="E193" s="0" t="n">
         <v>77.3</v>
       </c>
-      <c r="F193" s="10"/>
-      <c r="G193" s="10"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="10"/>
-      <c r="K193" s="10"/>
-      <c r="L193" s="10"/>
+      <c r="F193" s="11"/>
+      <c r="G193" s="11"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="11"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="11"/>
+      <c r="L193" s="11"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="n">
@@ -14152,7 +14184,7 @@
       <c r="Q197" s="0" t="n">
         <v>846.3</v>
       </c>
-      <c r="R197" s="10" t="n">
+      <c r="R197" s="11" t="n">
         <v>867.2</v>
       </c>
     </row>
@@ -14208,7 +14240,7 @@
       <c r="Q198" s="0" t="n">
         <v>1239.5</v>
       </c>
-      <c r="R198" s="9" t="n">
+      <c r="R198" s="10" t="n">
         <v>1243.9</v>
       </c>
     </row>
@@ -14429,7 +14461,7 @@
       <c r="Q202" s="0" t="n">
         <v>1240</v>
       </c>
-      <c r="R202" s="9" t="n">
+      <c r="R202" s="10" t="n">
         <v>1255.2</v>
       </c>
     </row>
@@ -14576,7 +14608,7 @@
       <c r="Q205" s="0" t="n">
         <v>872.2</v>
       </c>
-      <c r="R205" s="10" t="n">
+      <c r="R205" s="11" t="n">
         <v>864.7</v>
       </c>
     </row>
@@ -14632,7 +14664,7 @@
       <c r="Q206" s="0" t="n">
         <v>891.2</v>
       </c>
-      <c r="R206" s="10" t="n">
+      <c r="R206" s="11" t="n">
         <v>862.5</v>
       </c>
     </row>
@@ -14688,7 +14720,7 @@
       <c r="Q207" s="0" t="n">
         <v>836.7</v>
       </c>
-      <c r="R207" s="10" t="n">
+      <c r="R207" s="11" t="n">
         <v>860.2</v>
       </c>
     </row>
@@ -14744,7 +14776,7 @@
       <c r="Q208" s="0" t="n">
         <v>850.8</v>
       </c>
-      <c r="R208" s="10" t="n">
+      <c r="R208" s="11" t="n">
         <v>857.9</v>
       </c>
     </row>
@@ -14800,7 +14832,7 @@
       <c r="Q209" s="0" t="n">
         <v>866.3</v>
       </c>
-      <c r="R209" s="10" t="n">
+      <c r="R209" s="11" t="n">
         <v>851</v>
       </c>
     </row>
@@ -14856,7 +14888,7 @@
       <c r="Q210" s="0" t="n">
         <v>840.5</v>
       </c>
-      <c r="R210" s="10" t="n">
+      <c r="R210" s="11" t="n">
         <v>848.2</v>
       </c>
     </row>
@@ -14912,7 +14944,7 @@
       <c r="Q211" s="0" t="n">
         <v>820.8</v>
       </c>
-      <c r="R211" s="10" t="n">
+      <c r="R211" s="11" t="n">
         <v>846.6</v>
       </c>
     </row>
@@ -14968,7 +15000,7 @@
       <c r="Q212" s="0" t="n">
         <v>886</v>
       </c>
-      <c r="R212" s="10" t="n">
+      <c r="R212" s="11" t="n">
         <v>834.9</v>
       </c>
     </row>
@@ -15024,7 +15056,7 @@
       <c r="Q213" s="0" t="n">
         <v>840.9</v>
       </c>
-      <c r="R213" s="10" t="n">
+      <c r="R213" s="11" t="n">
         <v>832.8</v>
       </c>
     </row>
@@ -15080,7 +15112,7 @@
       <c r="Q214" s="0" t="n">
         <v>811.4</v>
       </c>
-      <c r="R214" s="10" t="n">
+      <c r="R214" s="11" t="n">
         <v>832</v>
       </c>
     </row>
@@ -15136,7 +15168,7 @@
       <c r="Q215" s="0" t="n">
         <v>800.4</v>
       </c>
-      <c r="R215" s="10" t="n">
+      <c r="R215" s="11" t="n">
         <v>828.8</v>
       </c>
     </row>
@@ -15192,7 +15224,7 @@
       <c r="Q216" s="0" t="n">
         <v>855.3</v>
       </c>
-      <c r="R216" s="10" t="n">
+      <c r="R216" s="11" t="n">
         <v>823.5</v>
       </c>
     </row>
@@ -15248,7 +15280,7 @@
       <c r="Q217" s="0" t="n">
         <v>786.5</v>
       </c>
-      <c r="R217" s="10" t="n">
+      <c r="R217" s="11" t="n">
         <v>822.4</v>
       </c>
     </row>
@@ -15304,7 +15336,7 @@
       <c r="Q218" s="0" t="n">
         <v>824.2</v>
       </c>
-      <c r="R218" s="10" t="n">
+      <c r="R218" s="11" t="n">
         <v>819.8</v>
       </c>
     </row>
@@ -15360,7 +15392,7 @@
       <c r="Q219" s="0" t="n">
         <v>821.9</v>
       </c>
-      <c r="R219" s="10" t="n">
+      <c r="R219" s="11" t="n">
         <v>819.5</v>
       </c>
     </row>
@@ -15416,7 +15448,7 @@
       <c r="Q220" s="0" t="n">
         <v>813</v>
       </c>
-      <c r="R220" s="10" t="n">
+      <c r="R220" s="11" t="n">
         <v>816.5</v>
       </c>
     </row>
@@ -15438,8 +15470,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15450,89 +15482,89 @@
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>33</v>
+      <c r="B1" s="13" t="s">
+        <v>32</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>

--- a/data/chickens/B1 - LIL20.xlsx
+++ b/data/chickens/B1 - LIL20.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pedigree" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Body Weight" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Feed Intake" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Batch Feed Intake" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Pedigree!$A$1:$J$220</definedName>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="871" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="45">
   <si>
     <t xml:space="preserve">ID (Wing Tag)</t>
   </si>
@@ -289,7 +289,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -338,10 +338,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -386,7 +382,7 @@
   </sheetPr>
   <dimension ref="A1:J220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -15470,181 +15466,178 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.94"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="11.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
         <v>32</v>
       </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="C1" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S1" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="T1" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="U1" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="V1" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="W1" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X1" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Y1" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA1" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB1" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="2" t="s">
-        <v>12</v>
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>22117.1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>22117</v>
+        <v>36072</v>
       </c>
       <c r="E2" s="0" t="n">
-        <v>36072</v>
+        <v>46488</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>46488</v>
+        <v>54102</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>54102</v>
+        <v>61557</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>61557</v>
+        <v>6758</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>6758</v>
+        <v>72660</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>72660</v>
+        <v>82884</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>82884</v>
+        <v>87726</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>87726</v>
+        <v>91155</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>91155</v>
+        <v>92259</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>92259</v>
+        <v>92238</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>92238</v>
+        <v>94628</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>94628</v>
+        <v>96114</v>
       </c>
       <c r="Q2" s="0" t="n">
-        <v>96114</v>
+        <v>95524</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>95524</v>
+        <v>95088</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>95088</v>
+        <v>97705</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>97705</v>
+        <v>107545</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>107545</v>
+        <v>112579</v>
       </c>
       <c r="V2" s="0" t="n">
-        <v>112579</v>
+        <v>118265</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>118265</v>
+        <v>127655</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>127655</v>
+        <v>129000</v>
       </c>
       <c r="Y2" s="0" t="n">
-        <v>129000</v>
+        <v>128280</v>
       </c>
       <c r="Z2" s="0" t="n">
-        <v>128280</v>
+        <v>125880</v>
       </c>
       <c r="AA2" s="0" t="n">
-        <v>125880</v>
-      </c>
-      <c r="AB2" s="0" t="n">
         <v>105360</v>
       </c>
     </row>

--- a/data/chickens/B1 - LIL20.xlsx
+++ b/data/chickens/B1 - LIL20.xlsx
@@ -170,7 +170,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -213,11 +213,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -314,15 +309,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -386,7 +381,7 @@
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.14"/>
@@ -3988,7 +3983,7 @@
       <selection pane="topLeft" activeCell="C202" activeCellId="0" sqref="C202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.47"/>
   </cols>
@@ -15466,11 +15461,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
@@ -15581,7 +15576,7 @@
         <v>61557</v>
       </c>
       <c r="H2" s="0" t="n">
-        <v>6758</v>
+        <v>67580</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>72660</v>

--- a/data/chickens/B1 - LIL20.xlsx
+++ b/data/chickens/B1 - LIL20.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Pedigree" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="44">
   <si>
     <t xml:space="preserve">ID (Wing Tag)</t>
   </si>
@@ -81,7 +81,7 @@
     <t xml:space="preserve">Week 2</t>
   </si>
   <si>
-    <t xml:space="preserve">WEEK 3</t>
+    <t xml:space="preserve">Week 3</t>
   </si>
   <si>
     <t xml:space="preserve">Week 4</t>
@@ -124,9 +124,6 @@
   </si>
   <si>
     <t xml:space="preserve">Batch Feed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Week 3</t>
   </si>
   <si>
     <t xml:space="preserve">Week 9</t>
@@ -3979,8 +3976,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C202" activeCellId="0" sqref="C202"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15461,8 +15458,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I9" activeCellId="0" sqref="I9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15485,7 +15482,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -15503,7 +15500,7 @@
         <v>23</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>25</v>
@@ -15512,7 +15509,7 @@
         <v>26</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>28</v>
@@ -15527,31 +15524,31 @@
         <v>31</v>
       </c>
       <c r="S1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="W1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="X1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="Y1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Z1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>44</v>
       </c>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>

--- a/data/chickens/B1 - LIL20.xlsx
+++ b/data/chickens/B1 - LIL20.xlsx
@@ -5,12 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pedigree" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Body Weight" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Batch Feed Intake" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Individual Feed Intake" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Egg Production" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Pedigree!$A$1:$J$220</definedName>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="47">
   <si>
     <t xml:space="preserve">ID (Wing Tag)</t>
   </si>
@@ -158,6 +160,15 @@
   <si>
     <t xml:space="preserve">Week 25</t>
   </si>
+  <si>
+    <t xml:space="preserve">Week</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Egg Weight</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +178,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -218,6 +229,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -281,7 +298,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -334,6 +351,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,10 +396,10 @@
   <dimension ref="A1:J220"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="A23" activeCellId="0" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.14"/>
@@ -3976,11 +3997,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ220"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="14.47"/>
   </cols>
@@ -15458,11 +15479,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H5" activeCellId="0" sqref="H5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.28"/>
@@ -15632,6 +15653,181 @@
       <c r="AA2" s="0" t="n">
         <v>105360</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.55"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="4" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="13" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="13" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="13" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
+        <v>1002</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="n">
+        <v>1044</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D29" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
